--- a/biology/Microbiologie/Ventrata/Ventrata.xlsx
+++ b/biology/Microbiologie/Ventrata/Ventrata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Ventrata sont un infra-embranchement de Ciliés du sous-embranchement des Intramacronucleata.
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon la diagnose de Thomas Cavalier-Smith (2004)[1], ces ciliés possèdent ancestralement un cytopharynx ventral.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon la diagnose de Thomas Cavalier-Smith (2004), ces ciliés possèdent ancestralement un cytopharynx ventral.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce taxon a été décrit en 2004 par le taxinomiste britannique Thomas Cavalier-Smith[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce taxon a été décrit en 2004 par le taxinomiste britannique Thomas Cavalier-Smith.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Liste des classes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon le World Register of Marine Species                               (22 décembre 2023)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon le World Register of Marine Species                               (22 décembre 2023) :
 Colpodea
 Nassophorea
 Oligohymenophorea
@@ -609,7 +627,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>(en) T Cavalier-Smith, chap. 4 « Chromalveolate Diversity and Cell Megaevolution: Interplay of Membranes, Genomes and Cytoskeleton », dans Organelles, Genomes and Eukaryote Phylogeny. The Systematics Association Special Volume Series 68, R.P. Hirt &amp; D.S. Horner, 2004 (lire en ligne ), p. 90</t>
         </is>
